--- a/Calendario2022/Actividades/Actividad6_Cableado_estructurado/act5.xlsx
+++ b/Calendario2022/Actividades/Actividad6_Cableado_estructurado/act5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad5_Cableado_estructurado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad6_Cableado_estructurado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF65B393-928B-4C83-BE7A-B97C9C92FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DE0C2-7620-4B6F-8307-4DA80907256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB1E1576-0C02-43EA-9ECE-F81693895290}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB1E1576-0C02-43EA-9ECE-F81693895290}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -469,10 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0444A13D-E444-4250-AD88-A11505544654}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,6 +1114,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>